--- a/OriginTable/CatState.xlsx
+++ b/OriginTable/CatState.xlsx
@@ -37,10 +37,10 @@
     <t>状态效果</t>
   </si>
   <si>
-    <t>状态标题</t>
-  </si>
-  <si>
-    <t>状态描述</t>
+    <t>&amp;状态标题</t>
+  </si>
+  <si>
+    <t>&amp;状态描述</t>
   </si>
   <si>
     <t>状态图标</t>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>

--- a/OriginTable/CatState.xlsx
+++ b/OriginTable/CatState.xlsx
@@ -58,7 +58,7 @@
     <t>躁狂</t>
   </si>
   <si>
-    <t>骰出的点数比层数低时，san值改变均+当回合骰面点数\nSan值降低时，层数-1.</t>
+    <t>骰出的点数比层数低时，理智改变均+当回合骰面点数\n理智降低时，层数-1.</t>
   </si>
   <si>
     <t>Art\ui\gaming\icon_fennu.png</t>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
